--- a/data/springcloud-course/hr-worker_structure.xlsx
+++ b/data/springcloud-course/hr-worker_structure.xlsx
@@ -207,16 +207,25 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>dailyIncome</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>dailyIncome</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>env</t>
+  </si>
+  <si>
+    <t>org.springframework.core.env.Environment</t>
+  </si>
+  <si>
+    <t>testConfig</t>
   </si>
   <si>
     <t>logger</t>
@@ -225,16 +234,7 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>env</t>
-  </si>
-  <si>
-    <t>org.springframework.core.env.Environment</t>
-  </si>
-  <si>
     <t>workerRepository</t>
-  </si>
-  <si>
-    <t>testConfig</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -1950,7 +1950,7 @@
         <v>62</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -1964,7 +1964,7 @@
         <v>62</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1978,7 +1978,7 @@
         <v>62</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -1986,13 +1986,13 @@
         <v>40</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>62</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -2000,13 +2000,13 @@
         <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>62</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -2014,13 +2014,13 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>62</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -2048,7 +2048,7 @@
         <v>62</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -2056,13 +2056,13 @@
         <v>52</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>62</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -2076,7 +2076,7 @@
         <v>62</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
